--- a/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Bear/Binance_ETH-USDT_1d/trades.xlsx
+++ b/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Bear/Binance_ETH-USDT_1d/trades.xlsx
@@ -446,34 +446,34 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B2">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="C2">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>0.2972609537243843</v>
+        <v>0.2790267536342144</v>
       </c>
       <c r="E2">
-        <v>0.3296106192201974</v>
+        <v>0.3084695325630574</v>
       </c>
       <c r="F2">
-        <v>5.370044472304972</v>
+        <v>5.211371870405212</v>
       </c>
       <c r="G2">
-        <v>0.1088258147950611</v>
+        <v>0.1055195551873156</v>
       </c>
       <c r="H2" s="2">
-        <v>44643</v>
+        <v>44594</v>
       </c>
       <c r="I2" s="2">
-        <v>44657</v>
+        <v>44601</v>
       </c>
       <c r="J2" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -481,95 +481,95 @@
         <v>166</v>
       </c>
       <c r="B3">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C3">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D3">
-        <v>0.297930655092001</v>
+        <v>0.2972609537243843</v>
       </c>
       <c r="E3">
-        <v>0.3296106192201974</v>
+        <v>0.3310229231057988</v>
       </c>
       <c r="F3">
-        <v>5.258874045280603</v>
+        <v>5.60448691731481</v>
       </c>
       <c r="G3">
-        <v>0.1063333483370943</v>
+        <v>0.1135768723016279</v>
       </c>
       <c r="H3" s="2">
-        <v>44622</v>
+        <v>44643</v>
       </c>
       <c r="I3" s="2">
-        <v>44657</v>
+        <v>44651</v>
       </c>
       <c r="J3" s="3">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B4">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C4">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D4">
-        <v>0.311980661034584</v>
+        <v>0.297930655092001</v>
       </c>
       <c r="E4">
-        <v>0.3296106192201974</v>
+        <v>0.3310229231057988</v>
       </c>
       <c r="F4">
-        <v>2.785533393326911</v>
+        <v>5.49331649029044</v>
       </c>
       <c r="G4">
-        <v>0.05650977893036457</v>
+        <v>0.1110737262118224</v>
       </c>
       <c r="H4" s="2">
-        <v>44601</v>
+        <v>44622</v>
       </c>
       <c r="I4" s="2">
-        <v>44657</v>
+        <v>44651</v>
       </c>
       <c r="J4" s="3">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B5">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C5">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D5">
-        <v>0.2790267536342144</v>
+        <v>0.311980661034584</v>
       </c>
       <c r="E5">
-        <v>0.3296106192201974</v>
+        <v>0.3310229231057988</v>
       </c>
       <c r="F5">
-        <v>8.95334420871899</v>
+        <v>3.008677407251937</v>
       </c>
       <c r="G5">
-        <v>0.1812867939262022</v>
+        <v>0.06103667454279771</v>
       </c>
       <c r="H5" s="2">
-        <v>44594</v>
+        <v>44601</v>
       </c>
       <c r="I5" s="2">
-        <v>44657</v>
+        <v>44651</v>
       </c>
       <c r="J5" s="3">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -580,444 +580,444 @@
         <v>68</v>
       </c>
       <c r="C6">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D6">
         <v>0.3163010089993477</v>
       </c>
       <c r="E6">
-        <v>0.3296106192201974</v>
+        <v>0.3310229231057988</v>
       </c>
       <c r="F6">
-        <v>2.076299194452553</v>
+        <v>2.296618600606376</v>
       </c>
       <c r="G6">
-        <v>0.04207893696879461</v>
+        <v>0.04654399982164303</v>
       </c>
       <c r="H6" s="2">
         <v>44580</v>
       </c>
       <c r="I6" s="2">
-        <v>44657</v>
+        <v>44651</v>
       </c>
       <c r="J6" s="3">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>303</v>
+        <v>476</v>
       </c>
       <c r="B7">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="C7">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="D7">
-        <v>0.1632540948987007</v>
+        <v>0.1039618520736694</v>
       </c>
       <c r="E7">
-        <v>0.1747235504497632</v>
+        <v>0.1569399215998499</v>
       </c>
       <c r="F7">
-        <v>3.475245031971943</v>
+        <v>25.21756109446189</v>
       </c>
       <c r="G7">
-        <v>0.07025523958942248</v>
+        <v>0.5095914363726335</v>
       </c>
       <c r="H7" s="2">
-        <v>44776</v>
+        <v>44755</v>
       </c>
       <c r="I7" s="2">
-        <v>44792</v>
+        <v>44767</v>
       </c>
       <c r="J7" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>341</v>
+        <v>432</v>
       </c>
       <c r="B8">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="C8">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="D8">
-        <v>0.145056916475296</v>
+        <v>0.1145194111764431</v>
       </c>
       <c r="E8">
-        <v>0.1747235504497632</v>
+        <v>0.1569399215998499</v>
       </c>
       <c r="F8">
-        <v>10.11632218529332</v>
+        <v>18.32566050291173</v>
       </c>
       <c r="G8">
-        <v>0.2045171970791175</v>
+        <v>0.3704220095757249</v>
       </c>
       <c r="H8" s="2">
-        <v>44769</v>
+        <v>44741</v>
       </c>
       <c r="I8" s="2">
-        <v>44792</v>
+        <v>44767</v>
       </c>
       <c r="J8" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="B9">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C9">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="D9">
-        <v>0.1543872267156839</v>
+        <v>0.145056916475296</v>
       </c>
       <c r="E9">
-        <v>0.1747235504497632</v>
+        <v>0.1671326050435598</v>
       </c>
       <c r="F9">
-        <v>6.507623594905372</v>
+        <v>7.527809801777948</v>
       </c>
       <c r="G9">
-        <v>0.1317228385190843</v>
+        <v>0.1521863907263146</v>
       </c>
       <c r="H9" s="2">
-        <v>44762</v>
+        <v>44769</v>
       </c>
       <c r="I9" s="2">
-        <v>44792</v>
+        <v>44774</v>
       </c>
       <c r="J9" s="3">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>476</v>
+        <v>320</v>
       </c>
       <c r="B10">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C10">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="D10">
-        <v>0.1039618520736694</v>
+        <v>0.1543872267156839</v>
       </c>
       <c r="E10">
-        <v>0.1747235504497632</v>
+        <v>0.1671326050435598</v>
       </c>
       <c r="F10">
-        <v>33.68256842702064</v>
+        <v>4.078521064920277</v>
       </c>
       <c r="G10">
-        <v>0.6806506133225738</v>
+        <v>0.08255461671934472</v>
       </c>
       <c r="H10" s="2">
-        <v>44755</v>
+        <v>44762</v>
       </c>
       <c r="I10" s="2">
-        <v>44792</v>
+        <v>44774</v>
       </c>
       <c r="J10" s="3">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>432</v>
+        <v>290</v>
       </c>
       <c r="B11">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="C11">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D11">
-        <v>0.1145194111764431</v>
+        <v>0.1704462770968675</v>
       </c>
       <c r="E11">
-        <v>0.1747235504497632</v>
+        <v>0.1915892930369939</v>
       </c>
       <c r="F11">
-        <v>26.00818816607429</v>
+        <v>6.131474622636651</v>
       </c>
       <c r="G11">
-        <v>0.5257112192147235</v>
+        <v>0.1240450439883203</v>
       </c>
       <c r="H11" s="2">
-        <v>44741</v>
+        <v>44783</v>
       </c>
       <c r="I11" s="2">
-        <v>44792</v>
+        <v>44788</v>
       </c>
       <c r="J11" s="3">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="B12">
-        <v>348</v>
+        <v>264</v>
       </c>
       <c r="C12">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="D12">
-        <v>0.1461199693232774</v>
+        <v>0.1632540948987007</v>
       </c>
       <c r="E12">
-        <v>0.1535340904648121</v>
+        <v>0.1915892930369939</v>
       </c>
       <c r="F12">
-        <v>2.513387066980234</v>
+        <v>8.585565035902853</v>
       </c>
       <c r="G12">
-        <v>0.05073995824028366</v>
+        <v>0.1735650070883383</v>
       </c>
       <c r="H12" s="2">
-        <v>44860</v>
+        <v>44776</v>
       </c>
       <c r="I12" s="2">
-        <v>44873</v>
+        <v>44788</v>
       </c>
       <c r="J12" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>377</v>
+        <v>317</v>
       </c>
       <c r="B13">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="C13">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="D13">
-        <v>0.1312020722925663</v>
+        <v>0.1560569009035826</v>
       </c>
       <c r="E13">
-        <v>0.1535340904648121</v>
+        <v>0.1697946218752888</v>
       </c>
       <c r="F13">
-        <v>8.419170850936659</v>
+        <v>4.354857548030864</v>
       </c>
       <c r="G13">
-        <v>0.1702108646763432</v>
+        <v>0.08803020495834302</v>
       </c>
       <c r="H13" s="2">
-        <v>44853</v>
+        <v>44811</v>
       </c>
       <c r="I13" s="2">
-        <v>44873</v>
+        <v>44816</v>
       </c>
       <c r="J13" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="B14">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="C14">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D14">
-        <v>0.1362861524820328</v>
+        <v>0.1461199693232774</v>
       </c>
       <c r="E14">
-        <v>0.1535340904648121</v>
+        <v>0.157281323631142</v>
       </c>
       <c r="F14">
-        <v>6.261001487748883</v>
+        <v>3.783699110366074</v>
       </c>
       <c r="G14">
-        <v>0.1265567900234998</v>
+        <v>0.07638486621339902</v>
       </c>
       <c r="H14" s="2">
-        <v>44839</v>
+        <v>44860</v>
       </c>
       <c r="I14" s="2">
-        <v>44873</v>
+        <v>44865</v>
       </c>
       <c r="J14" s="3">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>313</v>
+        <v>377</v>
       </c>
       <c r="B15">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="C15">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D15">
-        <v>0.1580048491507768</v>
+        <v>0.1312020722925663</v>
       </c>
       <c r="E15">
-        <v>0.1289349943399429</v>
+        <v>0.157281323631142</v>
       </c>
       <c r="F15">
-        <v>-9.098864555791012</v>
+        <v>9.831877754643036</v>
       </c>
       <c r="G15">
-        <v>-0.1839807763310723</v>
+        <v>0.1987716419632597</v>
       </c>
       <c r="H15" s="2">
-        <v>44867</v>
+        <v>44853</v>
       </c>
       <c r="I15" s="2">
-        <v>44877</v>
+        <v>44865</v>
       </c>
       <c r="J15" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="B16">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="C16">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D16">
-        <v>0.1575974467396736</v>
+        <v>0.1362861524820328</v>
       </c>
       <c r="E16">
-        <v>0.1289349943399429</v>
+        <v>0.157281323631142</v>
       </c>
       <c r="F16">
-        <v>-9.00001005351543</v>
+        <v>7.621247127126641</v>
       </c>
       <c r="G16">
-        <v>-0.1818712992671548</v>
+        <v>0.1540521231742682</v>
       </c>
       <c r="H16" s="2">
-        <v>44818</v>
+        <v>44839</v>
       </c>
       <c r="I16" s="2">
-        <v>44877</v>
+        <v>44865</v>
       </c>
       <c r="J16" s="3">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B17">
-        <v>299</v>
+        <v>355</v>
       </c>
       <c r="C17">
         <v>365</v>
       </c>
       <c r="D17">
-        <v>0.1560569009035826</v>
+        <v>0.1580048491507768</v>
       </c>
       <c r="E17">
         <v>0.1289349943399429</v>
       </c>
       <c r="F17">
-        <v>-8.597644380673765</v>
+        <v>-9.098864555791012</v>
       </c>
       <c r="G17">
-        <v>-0.173794983795023</v>
+        <v>-0.1839807763310723</v>
       </c>
       <c r="H17" s="2">
-        <v>44811</v>
+        <v>44867</v>
       </c>
       <c r="I17" s="2">
         <v>44877</v>
       </c>
       <c r="J17" s="3">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="B18">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="C18">
         <v>365</v>
       </c>
       <c r="D18">
-        <v>0.1878546643108129</v>
+        <v>0.1575974467396736</v>
       </c>
       <c r="E18">
         <v>0.1289349943399429</v>
       </c>
       <c r="F18">
-        <v>-15.49587320233881</v>
+        <v>-9.00001005351543</v>
       </c>
       <c r="G18">
-        <v>-0.3136449669058261</v>
+        <v>-0.1818712992671548</v>
       </c>
       <c r="H18" s="2">
-        <v>44790</v>
+        <v>44818</v>
       </c>
       <c r="I18" s="2">
         <v>44877</v>
       </c>
       <c r="J18" s="3">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="B19">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C19">
         <v>365</v>
       </c>
       <c r="D19">
-        <v>0.1704462770968675</v>
+        <v>0.1878546643108129</v>
       </c>
       <c r="E19">
         <v>0.1289349943399429</v>
       </c>
       <c r="F19">
-        <v>-12.03827199950814</v>
+        <v>-15.49587320233881</v>
       </c>
       <c r="G19">
-        <v>-0.2435446726321457</v>
+        <v>-0.3136449669058261</v>
       </c>
       <c r="H19" s="2">
-        <v>44783</v>
+        <v>44790</v>
       </c>
       <c r="I19" s="2">
         <v>44877</v>
       </c>
       <c r="J19" s="3">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:10">
